--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_2018.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_2018.xlsx
@@ -1234,16 +1234,16 @@
         <v>76775</v>
       </c>
       <c r="F23" t="n">
-        <v>454999</v>
+        <v>453919</v>
       </c>
       <c r="G23" t="n">
-        <v>38855</v>
+        <v>38567</v>
       </c>
       <c r="H23" t="n">
         <v>557110</v>
       </c>
       <c r="I23" t="n">
-        <v>3424358</v>
+        <v>3422990</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2278,16 +2278,16 @@
         <v>5087542.31</v>
       </c>
       <c r="F59" t="n">
-        <v>11970239.51</v>
+        <v>11969159.51</v>
       </c>
       <c r="G59" t="n">
-        <v>1144448.92</v>
+        <v>1144160.92</v>
       </c>
       <c r="H59" t="n">
         <v>72369438.08</v>
       </c>
       <c r="I59" t="n">
-        <v>181446860.39</v>
+        <v>181445492.39</v>
       </c>
     </row>
   </sheetData>
@@ -3603,16 +3603,16 @@
         <v>51839</v>
       </c>
       <c r="G42" t="n">
-        <v>365252</v>
+        <v>364172</v>
       </c>
       <c r="H42" t="n">
-        <v>25901</v>
+        <v>25613</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2671834</v>
+        <v>2670466</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -5653,16 +5653,16 @@
         <v>5087542.31</v>
       </c>
       <c r="G108" t="n">
-        <v>11970239.51</v>
+        <v>11969159.51</v>
       </c>
       <c r="H108" t="n">
-        <v>1144448.92</v>
+        <v>1144160.92</v>
       </c>
       <c r="I108" t="n">
         <v>72369438.08</v>
       </c>
       <c r="J108" t="n">
-        <v>181446860.39</v>
+        <v>181445492.39</v>
       </c>
     </row>
   </sheetData>

--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_2018.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_2018.xlsx
@@ -1776,16 +1776,16 @@
         <v>3674989.56</v>
       </c>
       <c r="C42" t="n">
-        <v>6136683.78</v>
+        <v>6137283.62</v>
       </c>
       <c r="D42" t="n">
-        <v>83231.85000000001</v>
+        <v>79739.85000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>47250.96</v>
+        <v>47956.96</v>
       </c>
       <c r="F42" t="n">
-        <v>1629608</v>
+        <v>1618640.14</v>
       </c>
       <c r="G42" t="n">
         <v>37629.32</v>
@@ -1794,7 +1794,7 @@
         <v>10822956.91</v>
       </c>
       <c r="I42" t="n">
-        <v>22432350.38</v>
+        <v>22419196.36</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2269,16 +2269,16 @@
         <v>23813098.37</v>
       </c>
       <c r="C59" t="n">
-        <v>65070435.34</v>
+        <v>65071035.18</v>
       </c>
       <c r="D59" t="n">
-        <v>1991657.86</v>
+        <v>1988165.86</v>
       </c>
       <c r="E59" t="n">
-        <v>5087542.31</v>
+        <v>5088248.31</v>
       </c>
       <c r="F59" t="n">
-        <v>11969159.51</v>
+        <v>11958191.65</v>
       </c>
       <c r="G59" t="n">
         <v>1144160.92</v>
@@ -2287,7 +2287,7 @@
         <v>72369438.08</v>
       </c>
       <c r="I59" t="n">
-        <v>181445492.39</v>
+        <v>181432338.37</v>
       </c>
     </row>
   </sheetData>
@@ -4682,16 +4682,16 @@
         <v>3674989.56</v>
       </c>
       <c r="D77" t="n">
-        <v>6136683.78</v>
+        <v>6137283.62</v>
       </c>
       <c r="E77" t="n">
-        <v>83045.14999999999</v>
+        <v>79553.14999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>46877.66</v>
+        <v>47583.66</v>
       </c>
       <c r="G77" t="n">
-        <v>1622934.99</v>
+        <v>1611967.13</v>
       </c>
       <c r="H77" t="n">
         <v>37629.32</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>11602160.46</v>
+        <v>11589006.44</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -5644,16 +5644,16 @@
         <v>23813098.37</v>
       </c>
       <c r="D108" t="n">
-        <v>65070435.34</v>
+        <v>65071035.18</v>
       </c>
       <c r="E108" t="n">
-        <v>1991657.86</v>
+        <v>1988165.86</v>
       </c>
       <c r="F108" t="n">
-        <v>5087542.31</v>
+        <v>5088248.31</v>
       </c>
       <c r="G108" t="n">
-        <v>11969159.51</v>
+        <v>11958191.65</v>
       </c>
       <c r="H108" t="n">
         <v>1144160.92</v>
@@ -5662,7 +5662,7 @@
         <v>72369438.08</v>
       </c>
       <c r="J108" t="n">
-        <v>181445492.39</v>
+        <v>181432338.37</v>
       </c>
     </row>
   </sheetData>

--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_2018.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_2018.xlsx
@@ -129,9 +129,6 @@
     <t>Grünenthal Pharma AG</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Recordati</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -1425,28 +1425,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>1720736.37</v>
+        <v>1568158</v>
       </c>
       <c r="C30" t="n">
-        <v>3885991.97</v>
+        <v>1337405</v>
       </c>
       <c r="D30" t="n">
-        <v>94354.77</v>
+        <v>55167</v>
       </c>
       <c r="E30" t="n">
-        <v>290916.09</v>
+        <v>134252</v>
       </c>
       <c r="F30" t="n">
-        <v>756997.59</v>
+        <v>336328</v>
       </c>
       <c r="G30" t="n">
-        <v>90121.11</v>
+        <v>10922</v>
       </c>
       <c r="H30" t="n">
-        <v>13045956.79</v>
+        <v>621414</v>
       </c>
       <c r="I30" t="n">
-        <v>19885074.69</v>
+        <v>4063646</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1454,28 +1454,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>1568158</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1337405</v>
+        <v>439425.93</v>
       </c>
       <c r="D31" t="n">
-        <v>55167</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>134252</v>
+        <v>500</v>
       </c>
       <c r="F31" t="n">
-        <v>336328</v>
+        <v>17749.9</v>
       </c>
       <c r="G31" t="n">
-        <v>10922</v>
+        <v>2847.51</v>
       </c>
       <c r="H31" t="n">
-        <v>621414</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4063646</v>
+        <v>460523.34</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1486,25 +1486,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>439425.93</v>
+        <v>374575</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>40500</v>
       </c>
       <c r="E32" t="n">
-        <v>500</v>
+        <v>105806</v>
       </c>
       <c r="F32" t="n">
-        <v>17749.9</v>
+        <v>100856</v>
       </c>
       <c r="G32" t="n">
-        <v>2847.51</v>
+        <v>9966</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>460523.34</v>
+        <v>631703</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1512,28 +1512,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2327831.07</v>
       </c>
       <c r="C33" t="n">
-        <v>374575</v>
+        <v>4351158.95</v>
       </c>
       <c r="D33" t="n">
-        <v>40500</v>
+        <v>43794.28</v>
       </c>
       <c r="E33" t="n">
-        <v>105806</v>
+        <v>246926.28</v>
       </c>
       <c r="F33" t="n">
-        <v>100856</v>
+        <v>848317.3199999999</v>
       </c>
       <c r="G33" t="n">
-        <v>9966</v>
+        <v>10292.41</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2800731.4</v>
       </c>
       <c r="I33" t="n">
-        <v>631703</v>
+        <v>10629051.71</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1541,28 +1541,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>2327831.07</v>
+        <v>25600</v>
       </c>
       <c r="C34" t="n">
-        <v>4351158.95</v>
+        <v>340190</v>
       </c>
       <c r="D34" t="n">
-        <v>43794.28</v>
+        <v>3660</v>
       </c>
       <c r="E34" t="n">
-        <v>246926.28</v>
+        <v>5815</v>
       </c>
       <c r="F34" t="n">
-        <v>848317.3199999999</v>
+        <v>32441</v>
       </c>
       <c r="G34" t="n">
-        <v>10292.41</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2800731.4</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>10629051.71</v>
+        <v>407706</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1570,28 +1570,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>340190</v>
+        <v>681786</v>
       </c>
       <c r="D35" t="n">
-        <v>3660</v>
+        <v>9212</v>
       </c>
       <c r="E35" t="n">
-        <v>5815</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>32441</v>
+        <v>122085</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2412</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>407706</v>
+        <v>815495</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1599,28 +1599,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>3422792.73</v>
       </c>
       <c r="C36" t="n">
-        <v>681786</v>
+        <v>1071553.54</v>
       </c>
       <c r="D36" t="n">
-        <v>9212</v>
+        <v>38362.81</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>122908.41</v>
       </c>
       <c r="F36" t="n">
-        <v>122085</v>
+        <v>405845.81</v>
       </c>
       <c r="G36" t="n">
-        <v>2412</v>
+        <v>25775.1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>365340</v>
       </c>
       <c r="I36" t="n">
-        <v>815495</v>
+        <v>5452578.4</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1628,28 +1628,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>3422792.73</v>
+        <v>580060</v>
       </c>
       <c r="C37" t="n">
-        <v>1071553.54</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>38362.81</v>
+        <v>44353</v>
       </c>
       <c r="E37" t="n">
-        <v>122908.41</v>
+        <v>90855</v>
       </c>
       <c r="F37" t="n">
-        <v>405845.81</v>
+        <v>29126</v>
       </c>
       <c r="G37" t="n">
-        <v>25775.1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>365340</v>
+        <v>22000</v>
       </c>
       <c r="I37" t="n">
-        <v>5452578.4</v>
+        <v>766394</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1657,28 +1657,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>580060</v>
+        <v>54900</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>260345</v>
       </c>
       <c r="D38" t="n">
-        <v>44353</v>
+        <v>8176</v>
       </c>
       <c r="E38" t="n">
-        <v>90855</v>
+        <v>18952</v>
       </c>
       <c r="F38" t="n">
-        <v>29126</v>
+        <v>25182</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>766394</v>
+        <v>367555</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1686,19 +1686,19 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>54900</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>260345</v>
+        <v>19100</v>
       </c>
       <c r="D39" t="n">
-        <v>8176</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>18952</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>25182</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>367555</v>
+        <v>19100</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1718,25 +1718,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>19100</v>
+        <v>66871.12</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2686.15</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3642.85</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>14700</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2671.54</v>
       </c>
       <c r="I40" t="n">
-        <v>19100</v>
+        <v>90571.66</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>3674989.56</v>
       </c>
       <c r="C41" t="n">
-        <v>66871.12</v>
+        <v>6137283.62</v>
       </c>
       <c r="D41" t="n">
-        <v>2686.15</v>
+        <v>79739.85000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>3642.85</v>
+        <v>47956.96</v>
       </c>
       <c r="F41" t="n">
-        <v>14700</v>
+        <v>1618640.14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>37629.32</v>
       </c>
       <c r="H41" t="n">
-        <v>2671.54</v>
+        <v>10822956.91</v>
       </c>
       <c r="I41" t="n">
-        <v>90571.66</v>
+        <v>22419196.36</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1773,28 +1773,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>3674989.56</v>
+        <v>1451821</v>
       </c>
       <c r="C42" t="n">
-        <v>6137283.62</v>
+        <v>513528</v>
       </c>
       <c r="D42" t="n">
-        <v>79739.85000000001</v>
+        <v>126806</v>
       </c>
       <c r="E42" t="n">
-        <v>47956.96</v>
+        <v>290915</v>
       </c>
       <c r="F42" t="n">
-        <v>1618640.14</v>
+        <v>208237</v>
       </c>
       <c r="G42" t="n">
-        <v>37629.32</v>
+        <v>32172</v>
       </c>
       <c r="H42" t="n">
-        <v>10822956.91</v>
+        <v>462354</v>
       </c>
       <c r="I42" t="n">
-        <v>22419196.36</v>
+        <v>3085833</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1802,28 +1802,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>1451821</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>513528</v>
+        <v>137166</v>
       </c>
       <c r="D43" t="n">
-        <v>126806</v>
+        <v>15647.31</v>
       </c>
       <c r="E43" t="n">
-        <v>290915</v>
+        <v>33881.37</v>
       </c>
       <c r="F43" t="n">
-        <v>208237</v>
+        <v>19071.1</v>
       </c>
       <c r="G43" t="n">
-        <v>32172</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>462354</v>
+        <v>19.92</v>
       </c>
       <c r="I43" t="n">
-        <v>3085833</v>
+        <v>205785.7</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1834,25 +1834,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>137166</v>
+        <v>95841.36</v>
       </c>
       <c r="D44" t="n">
-        <v>15647.31</v>
+        <v>11511.21</v>
       </c>
       <c r="E44" t="n">
-        <v>33881.37</v>
+        <v>25942.71</v>
       </c>
       <c r="F44" t="n">
-        <v>19071.1</v>
+        <v>16552.79</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1248.53</v>
       </c>
       <c r="H44" t="n">
-        <v>19.92</v>
+        <v>26714.2</v>
       </c>
       <c r="I44" t="n">
-        <v>205785.7</v>
+        <v>177810.8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1860,28 +1860,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1054953</v>
       </c>
       <c r="C45" t="n">
-        <v>95841.36</v>
+        <v>5568520</v>
       </c>
       <c r="D45" t="n">
-        <v>11511.21</v>
+        <v>80599</v>
       </c>
       <c r="E45" t="n">
-        <v>25942.71</v>
+        <v>231918</v>
       </c>
       <c r="F45" t="n">
-        <v>16552.79</v>
+        <v>637796</v>
       </c>
       <c r="G45" t="n">
-        <v>1248.53</v>
+        <v>31755</v>
       </c>
       <c r="H45" t="n">
-        <v>26714.2</v>
+        <v>5018376</v>
       </c>
       <c r="I45" t="n">
-        <v>177810.8</v>
+        <v>12623917</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1889,28 +1889,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>1054953</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>5568520</v>
+        <v>127741.99</v>
       </c>
       <c r="D46" t="n">
-        <v>80599</v>
+        <v>22378.34</v>
       </c>
       <c r="E46" t="n">
-        <v>231918</v>
+        <v>30263.83</v>
       </c>
       <c r="F46" t="n">
-        <v>637796</v>
+        <v>30847.29</v>
       </c>
       <c r="G46" t="n">
-        <v>31755</v>
+        <v>1030.29</v>
       </c>
       <c r="H46" t="n">
-        <v>5018376</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12623917</v>
+        <v>212261.74</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1921,25 +1921,25 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>127741.99</v>
+        <v>17700</v>
       </c>
       <c r="D47" t="n">
-        <v>22378.34</v>
+        <v>2796.79</v>
       </c>
       <c r="E47" t="n">
-        <v>30263.83</v>
+        <v>7528.79</v>
       </c>
       <c r="F47" t="n">
-        <v>30847.29</v>
+        <v>34700</v>
       </c>
       <c r="G47" t="n">
-        <v>1030.29</v>
+        <v>1118.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>212261.74</v>
+        <v>63843.88</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1947,28 +1947,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1720736.37</v>
       </c>
       <c r="C48" t="n">
-        <v>17700</v>
+        <v>3885991.97</v>
       </c>
       <c r="D48" t="n">
-        <v>2796.79</v>
+        <v>94354.77</v>
       </c>
       <c r="E48" t="n">
-        <v>7528.79</v>
+        <v>290916.09</v>
       </c>
       <c r="F48" t="n">
-        <v>34700</v>
+        <v>756997.59</v>
       </c>
       <c r="G48" t="n">
-        <v>1118.3</v>
+        <v>90121.11</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>13045956.79</v>
       </c>
       <c r="I48" t="n">
-        <v>63843.88</v>
+        <v>19885074.69</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3995,28 +3995,28 @@
         <v>68</v>
       </c>
       <c r="C55" t="n">
-        <v>215404.17</v>
+        <v>774495</v>
       </c>
       <c r="D55" t="n">
-        <v>11425.93</v>
+        <v>501977</v>
       </c>
       <c r="E55" t="n">
-        <v>7480.64</v>
+        <v>30366</v>
       </c>
       <c r="F55" t="n">
-        <v>31889.06</v>
+        <v>74771</v>
       </c>
       <c r="G55" t="n">
-        <v>65594.2</v>
+        <v>142737</v>
       </c>
       <c r="H55" t="n">
-        <v>12889.21</v>
+        <v>8335</v>
       </c>
       <c r="I55" t="n">
-        <v>13045956.79</v>
+        <v>621414</v>
       </c>
       <c r="J55" t="n">
-        <v>13390640</v>
+        <v>2154095</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4025,28 +4025,28 @@
         <v>67</v>
       </c>
       <c r="C56" t="n">
-        <v>1505332.2</v>
+        <v>793663</v>
       </c>
       <c r="D56" t="n">
-        <v>3874566.04</v>
+        <v>835428</v>
       </c>
       <c r="E56" t="n">
-        <v>86874.13</v>
+        <v>24801</v>
       </c>
       <c r="F56" t="n">
-        <v>259027.03</v>
+        <v>59481</v>
       </c>
       <c r="G56" t="n">
-        <v>691403.39</v>
+        <v>193591</v>
       </c>
       <c r="H56" t="n">
-        <v>77231.89999999999</v>
+        <v>2587</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>6494434.69</v>
+        <v>1909551</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4054,125 +4054,125 @@
         <v>38</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" t="n">
-        <v>774495</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>501977</v>
+        <v>439425.93</v>
       </c>
       <c r="E57" t="n">
-        <v>30366</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>74771</v>
+        <v>500</v>
       </c>
       <c r="G57" t="n">
-        <v>142737</v>
+        <v>17749.9</v>
       </c>
       <c r="H57" t="n">
-        <v>8335</v>
+        <v>2847.51</v>
       </c>
       <c r="I57" t="n">
-        <v>621414</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2154095</v>
+        <v>460523.34</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C58" t="n">
-        <v>793663</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>835428</v>
+        <v>374575</v>
       </c>
       <c r="E58" t="n">
-        <v>24801</v>
+        <v>40500</v>
       </c>
       <c r="F58" t="n">
-        <v>59481</v>
+        <v>105806</v>
       </c>
       <c r="G58" t="n">
-        <v>193591</v>
+        <v>100856</v>
       </c>
       <c r="H58" t="n">
-        <v>2587</v>
+        <v>9966</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1909551</v>
+        <v>631703</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>8610</v>
       </c>
       <c r="D59" t="n">
-        <v>439425.93</v>
+        <v>221389.27</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>9304.5</v>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>27637.11</v>
       </c>
       <c r="G59" t="n">
-        <v>17749.9</v>
+        <v>179093.71</v>
       </c>
       <c r="H59" t="n">
-        <v>2847.51</v>
+        <v>26.21</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2800731.4</v>
       </c>
       <c r="J59" t="n">
-        <v>460523.34</v>
+        <v>3246792.2</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2319221.07</v>
       </c>
       <c r="D60" t="n">
-        <v>374575</v>
+        <v>4129769.68</v>
       </c>
       <c r="E60" t="n">
-        <v>40500</v>
+        <v>34489.78</v>
       </c>
       <c r="F60" t="n">
-        <v>105806</v>
+        <v>219289.17</v>
       </c>
       <c r="G60" t="n">
-        <v>100856</v>
+        <v>669223.61</v>
       </c>
       <c r="H60" t="n">
-        <v>9966</v>
+        <v>10266.2</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>631703</v>
+        <v>7382259.51</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4183,28 +4183,28 @@
         <v>68</v>
       </c>
       <c r="C61" t="n">
-        <v>8610</v>
+        <v>25000</v>
       </c>
       <c r="D61" t="n">
-        <v>221389.27</v>
+        <v>2500</v>
       </c>
       <c r="E61" t="n">
-        <v>9304.5</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>27637.11</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>179093.71</v>
+        <v>7334</v>
       </c>
       <c r="H61" t="n">
-        <v>26.21</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2800731.4</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3246792.2</v>
+        <v>34834</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4213,28 +4213,28 @@
         <v>67</v>
       </c>
       <c r="C62" t="n">
-        <v>2319221.07</v>
+        <v>600</v>
       </c>
       <c r="D62" t="n">
-        <v>4129769.68</v>
+        <v>337690</v>
       </c>
       <c r="E62" t="n">
-        <v>34489.78</v>
+        <v>3660</v>
       </c>
       <c r="F62" t="n">
-        <v>219289.17</v>
+        <v>5815</v>
       </c>
       <c r="G62" t="n">
-        <v>669223.61</v>
+        <v>25107</v>
       </c>
       <c r="H62" t="n">
-        <v>10266.2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>7382259.51</v>
+        <v>372872</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4245,10 +4245,10 @@
         <v>68</v>
       </c>
       <c r="C63" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>7334</v>
+        <v>1260</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>34834</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4275,28 +4275,28 @@
         <v>67</v>
       </c>
       <c r="C64" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>337690</v>
+        <v>681786</v>
       </c>
       <c r="E64" t="n">
-        <v>3660</v>
+        <v>9212</v>
       </c>
       <c r="F64" t="n">
-        <v>5815</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>25107</v>
+        <v>120825</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2412</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>372872</v>
+        <v>814235</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4313,22 +4313,22 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>13514.96</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>32928.68</v>
       </c>
       <c r="G65" t="n">
-        <v>1260</v>
+        <v>254860.61</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>23879.92</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>365340</v>
       </c>
       <c r="J65" t="n">
-        <v>1260</v>
+        <v>690524.17</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4337,28 +4337,28 @@
         <v>67</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3422792.73</v>
       </c>
       <c r="D66" t="n">
-        <v>681786</v>
+        <v>1071553.54</v>
       </c>
       <c r="E66" t="n">
-        <v>9212</v>
+        <v>24847.85</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>89979.73</v>
       </c>
       <c r="G66" t="n">
-        <v>120825</v>
+        <v>150985.2</v>
       </c>
       <c r="H66" t="n">
-        <v>2412</v>
+        <v>1895.18</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>814235</v>
+        <v>4762054.23</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4375,22 +4375,22 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>13514.96</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>32928.68</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>254860.61</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>23879.92</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>365340</v>
+        <v>22000</v>
       </c>
       <c r="J67" t="n">
-        <v>690524.17</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4399,28 +4399,28 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>3422792.73</v>
+        <v>580060</v>
       </c>
       <c r="D68" t="n">
-        <v>1071553.54</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>24847.85</v>
+        <v>44353</v>
       </c>
       <c r="F68" t="n">
-        <v>89979.73</v>
+        <v>90855</v>
       </c>
       <c r="G68" t="n">
-        <v>150985.2</v>
+        <v>29126</v>
       </c>
       <c r="H68" t="n">
-        <v>1895.18</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4762054.23</v>
+        <v>744394</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4431,7 +4431,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -4443,16 +4443,16 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>22000</v>
+        <v>31650</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4461,19 +4461,19 @@
         <v>67</v>
       </c>
       <c r="C70" t="n">
-        <v>580060</v>
+        <v>25000</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>260345</v>
       </c>
       <c r="E70" t="n">
-        <v>44353</v>
+        <v>8176</v>
       </c>
       <c r="F70" t="n">
-        <v>90855</v>
+        <v>18952</v>
       </c>
       <c r="G70" t="n">
-        <v>29126</v>
+        <v>23432</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>744394</v>
+        <v>335905</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4490,67 +4490,67 @@
         <v>46</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>19100</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C71" t="n">
-        <v>29900</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1750</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>31650</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C72" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>260345</v>
+        <v>47835.6</v>
       </c>
       <c r="E72" t="n">
-        <v>8176</v>
+        <v>1481.31</v>
       </c>
       <c r="F72" t="n">
-        <v>18952</v>
+        <v>2327.9</v>
       </c>
       <c r="G72" t="n">
-        <v>23432</v>
+        <v>11700</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>2671.54</v>
       </c>
       <c r="J72" t="n">
-        <v>335905</v>
+        <v>66016.35000000001</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="s">
         <v>67</v>
       </c>
@@ -4558,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>19100</v>
+        <v>19035.52</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1204.84</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1314.95</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>19100</v>
+        <v>24555.31</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4590,25 +4590,25 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>47835.6</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1481.31</v>
+        <v>186.7</v>
       </c>
       <c r="F74" t="n">
-        <v>2327.9</v>
+        <v>373.3</v>
       </c>
       <c r="G74" t="n">
-        <v>11700</v>
+        <v>6673.01</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>2671.54</v>
+        <v>10822956.91</v>
       </c>
       <c r="J74" t="n">
-        <v>66016.35000000001</v>
+        <v>10830189.92</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4617,28 +4617,28 @@
         <v>67</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3674989.56</v>
       </c>
       <c r="D75" t="n">
-        <v>19035.52</v>
+        <v>6137283.62</v>
       </c>
       <c r="E75" t="n">
-        <v>1204.84</v>
+        <v>79553.14999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1314.95</v>
+        <v>47583.66</v>
       </c>
       <c r="G75" t="n">
-        <v>3000</v>
+        <v>1611967.13</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>37629.32</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>24555.31</v>
+        <v>11589006.44</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4649,28 +4649,28 @@
         <v>68</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>4729</v>
       </c>
       <c r="E76" t="n">
-        <v>186.7</v>
+        <v>6143</v>
       </c>
       <c r="F76" t="n">
-        <v>373.3</v>
+        <v>31864</v>
       </c>
       <c r="G76" t="n">
-        <v>6673.01</v>
+        <v>74337</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>18863</v>
       </c>
       <c r="I76" t="n">
-        <v>10822956.91</v>
+        <v>462354</v>
       </c>
       <c r="J76" t="n">
-        <v>10830189.92</v>
+        <v>898290</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4679,28 +4679,28 @@
         <v>67</v>
       </c>
       <c r="C77" t="n">
-        <v>3674989.56</v>
+        <v>1151821</v>
       </c>
       <c r="D77" t="n">
-        <v>6137283.62</v>
+        <v>508799</v>
       </c>
       <c r="E77" t="n">
-        <v>79553.14999999999</v>
+        <v>120663</v>
       </c>
       <c r="F77" t="n">
-        <v>47583.66</v>
+        <v>259051</v>
       </c>
       <c r="G77" t="n">
-        <v>1611967.13</v>
+        <v>133900</v>
       </c>
       <c r="H77" t="n">
-        <v>37629.32</v>
+        <v>13309</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>11589006.44</v>
+        <v>2187543</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4711,28 +4711,28 @@
         <v>68</v>
       </c>
       <c r="C78" t="n">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>4729</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>6143</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>31864</v>
+        <v>1516.5</v>
       </c>
       <c r="G78" t="n">
-        <v>74337</v>
+        <v>971.1</v>
       </c>
       <c r="H78" t="n">
-        <v>18863</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>462354</v>
+        <v>19.92</v>
       </c>
       <c r="J78" t="n">
-        <v>898290</v>
+        <v>2507.52</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4741,28 +4741,28 @@
         <v>67</v>
       </c>
       <c r="C79" t="n">
-        <v>1151821</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>508799</v>
+        <v>137166</v>
       </c>
       <c r="E79" t="n">
-        <v>120663</v>
+        <v>15647.31</v>
       </c>
       <c r="F79" t="n">
-        <v>259051</v>
+        <v>32364.87</v>
       </c>
       <c r="G79" t="n">
-        <v>133900</v>
+        <v>18100</v>
       </c>
       <c r="H79" t="n">
-        <v>13309</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2187543</v>
+        <v>203278.18</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4779,22 +4779,22 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>4280.03</v>
       </c>
       <c r="F80" t="n">
-        <v>1516.5</v>
+        <v>12631.61</v>
       </c>
       <c r="G80" t="n">
-        <v>971.1</v>
+        <v>9120</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>19.92</v>
+        <v>26714.2</v>
       </c>
       <c r="J80" t="n">
-        <v>2507.52</v>
+        <v>52745.84</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4806,25 +4806,25 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>137166</v>
+        <v>95841.36</v>
       </c>
       <c r="E81" t="n">
-        <v>15647.31</v>
+        <v>7231.18</v>
       </c>
       <c r="F81" t="n">
-        <v>32364.87</v>
+        <v>13311.1</v>
       </c>
       <c r="G81" t="n">
-        <v>18100</v>
+        <v>7432.79</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1248.53</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>203278.18</v>
+        <v>125064.96</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4841,22 +4841,22 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>4280.03</v>
+        <v>1671</v>
       </c>
       <c r="F82" t="n">
-        <v>12631.61</v>
+        <v>13767</v>
       </c>
       <c r="G82" t="n">
-        <v>9120</v>
+        <v>94712</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>10003</v>
       </c>
       <c r="I82" t="n">
-        <v>26714.2</v>
+        <v>5018376</v>
       </c>
       <c r="J82" t="n">
-        <v>52745.84</v>
+        <v>5138529</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4865,28 +4865,28 @@
         <v>67</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1054953</v>
       </c>
       <c r="D83" t="n">
-        <v>95841.36</v>
+        <v>5568520</v>
       </c>
       <c r="E83" t="n">
-        <v>7231.18</v>
+        <v>78928</v>
       </c>
       <c r="F83" t="n">
-        <v>13311.1</v>
+        <v>218151</v>
       </c>
       <c r="G83" t="n">
-        <v>7432.79</v>
+        <v>543084</v>
       </c>
       <c r="H83" t="n">
-        <v>1248.53</v>
+        <v>21752</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>125064.96</v>
+        <v>7485388</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4903,22 +4903,22 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>1671</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>13767</v>
+        <v>1043.31</v>
       </c>
       <c r="G84" t="n">
-        <v>94712</v>
+        <v>24747.29</v>
       </c>
       <c r="H84" t="n">
-        <v>10003</v>
+        <v>1030.29</v>
       </c>
       <c r="I84" t="n">
-        <v>5018376</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>5138529</v>
+        <v>26820.89</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4927,28 +4927,28 @@
         <v>67</v>
       </c>
       <c r="C85" t="n">
-        <v>1054953</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>5568520</v>
+        <v>127741.99</v>
       </c>
       <c r="E85" t="n">
-        <v>78928</v>
+        <v>22378.34</v>
       </c>
       <c r="F85" t="n">
-        <v>218151</v>
+        <v>29220.52</v>
       </c>
       <c r="G85" t="n">
-        <v>543084</v>
+        <v>6100</v>
       </c>
       <c r="H85" t="n">
-        <v>21752</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>7485388</v>
+        <v>185440.85</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4956,93 +4956,93 @@
         <v>54</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>17700</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2796.79</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7528.79</v>
+      </c>
+      <c r="G86" t="n">
+        <v>34700</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1118.3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>63843.88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1043.31</v>
-      </c>
-      <c r="G86" t="n">
-        <v>24747.29</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1030.29</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>26820.89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>215404.17</v>
       </c>
       <c r="D87" t="n">
-        <v>127741.99</v>
+        <v>11425.93</v>
       </c>
       <c r="E87" t="n">
-        <v>22378.34</v>
+        <v>7480.64</v>
       </c>
       <c r="F87" t="n">
-        <v>29220.52</v>
+        <v>31889.06</v>
       </c>
       <c r="G87" t="n">
-        <v>6100</v>
+        <v>65594.2</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>12889.21</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>13045956.79</v>
       </c>
       <c r="J87" t="n">
-        <v>185440.85</v>
+        <v>13390640</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1505332.2</v>
       </c>
       <c r="D88" t="n">
-        <v>17700</v>
+        <v>3874566.04</v>
       </c>
       <c r="E88" t="n">
-        <v>2796.79</v>
+        <v>86874.13</v>
       </c>
       <c r="F88" t="n">
-        <v>7528.79</v>
+        <v>259027.03</v>
       </c>
       <c r="G88" t="n">
-        <v>34700</v>
+        <v>691403.39</v>
       </c>
       <c r="H88" t="n">
-        <v>1118.3</v>
+        <v>77231.89999999999</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>63843.88</v>
+        <v>6494434.69</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5693,20 +5693,20 @@
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A72:A73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A87:A88"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="A93:A94"/>
